--- a/あうあうあうあうあうあうあ.xlsx
+++ b/あうあうあうあうあうあうあ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stitc\OneDrive\デスクトップ\制作\ポーション価格考察等\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stitc\OneDrive\デスクトップ\制作\v12.0.9 ちかせいさく\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555BAC8-D08A-4D5D-B347-2ED53C9D954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31A051B-6708-4349-AB10-DE34581A757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生産機" sheetId="1" r:id="rId1"/>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2650,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AFF270-4042-4D7A-B521-5D6B7C6E6A7E}">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2818,7 +2818,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:6" ht="29.25" thickBot="1">
+    <row r="32" spans="1:6" ht="25.5" thickBot="1">
       <c r="A32" s="23" ph="1"/>
       <c r="B32" s="32" ph="1"/>
       <c r="C32" s="32" ph="1"/>
